--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,9 +49,6 @@
     <t>however</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -64,82 +61,85 @@
     <t>returned</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
@@ -148,27 +148,21 @@
     <t>could</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>product</t>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
@@ -178,10 +172,13 @@
     <t>buy</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>like</t>
+    <t>much</t>
   </si>
   <si>
     <t>one</t>
@@ -190,9 +187,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>wonderful</t>
   </si>
   <si>
@@ -202,12 +196,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
@@ -233,6 +227,9 @@
   </si>
   <si>
     <t>fun</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
@@ -596,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +601,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,16 +683,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>0.8888888888888888</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +712,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +812,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K6">
-        <v>0.6666666666666666</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L6">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +862,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +880,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K7">
-        <v>0.53125</v>
+        <v>0.453125</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +912,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7087378640776699</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>0.5094339622641509</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L8">
         <v>27</v>
@@ -957,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6901408450704225</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>0.391304347826087</v>
+        <v>0.3377049180327869</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1012,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10">
-        <v>0.3377049180327869</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L10">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="M10">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>808</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1062,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6386554621848739</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1080,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>0.2898134863701578</v>
+        <v>0.2468879668049793</v>
       </c>
       <c r="L11">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="M11">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>495</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6351351351351351</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C12">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1130,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12">
-        <v>0.2551867219917012</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L12">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="M12">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1157,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>359</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1165,13 +1162,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6190476190476191</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,16 +1183,16 @@
         <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13">
-        <v>0.2083333333333333</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1207,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>95</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1212,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14">
-        <v>0.2048192771084337</v>
+        <v>0.1804281345565749</v>
       </c>
       <c r="L14">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M14">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>132</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1262,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,19 +1280,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15">
-        <v>0.1590214067278287</v>
+        <v>0.1164021164021164</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1307,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>275</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1312,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5555555555555556</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16">
-        <v>0.1164021164021164</v>
+        <v>0.08939526730937773</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>167</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1362,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K17">
-        <v>0.08150744960560911</v>
+        <v>0.08835341365461848</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1407,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1048</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1412,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4840579710144928</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C18">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,31 +1430,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18">
-        <v>0.03763789746917586</v>
+        <v>0.03311688311688311</v>
       </c>
       <c r="L18">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>1483</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1462,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4578313253012048</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C19">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1488,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4489795918367347</v>
+        <v>0.453125</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1543,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4094488188976378</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1561,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1569,13 +1566,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.40625</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1587,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1595,13 +1592,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3833333333333334</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1613,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1621,13 +1618,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3707865168539326</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1639,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1647,13 +1644,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3368421052631579</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1665,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1673,13 +1670,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3069306930693069</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1691,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1699,13 +1696,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2959183673469388</v>
+        <v>0.3125</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1717,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>69</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1725,13 +1722,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2890625</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1743,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1751,13 +1748,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.282051282051282</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1769,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1777,13 +1774,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2731958762886598</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1795,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1803,13 +1800,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2559241706161137</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1821,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,25 +1826,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.211864406779661</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>93</v>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1855,13 +1852,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1847826086956522</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1873,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>225</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,13 +1878,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.180379746835443</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C35">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D35">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1899,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1907,25 +1904,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1768202080237742</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C36">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>554</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1933,13 +1930,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.17</v>
+        <v>0.145</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1951,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1959,13 +1956,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1656050955414013</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1977,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,13 +1982,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1645569620253164</v>
+        <v>0.1387665198237885</v>
       </c>
       <c r="C39">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2003,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>264</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2011,13 +2008,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1495327102803738</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2029,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>182</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2037,13 +2034,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1371428571428571</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2055,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2063,13 +2060,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1211453744493392</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C42">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2081,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>399</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2089,13 +2086,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1209677419354839</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C43">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2107,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2115,13 +2112,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1151832460732984</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C44">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2133,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>169</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2141,13 +2138,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1149425287356322</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2159,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>308</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2167,25 +2164,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1068493150684932</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2193,25 +2190,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.101123595505618</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>240</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2219,25 +2216,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.07605633802816901</v>
+        <v>0.0625</v>
       </c>
       <c r="C48">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>328</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2245,25 +2242,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.066815144766147</v>
+        <v>0.05373831775700934</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2271,51 +2268,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.06260296540362438</v>
+        <v>0.03034134007585335</v>
       </c>
       <c r="C50">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F50">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.03045685279187817</v>
-      </c>
-      <c r="C51">
-        <v>24</v>
-      </c>
-      <c r="D51">
-        <v>30</v>
-      </c>
-      <c r="E51">
-        <v>0.2</v>
-      </c>
-      <c r="F51">
-        <v>0.8</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
   </sheetData>
